--- a/excel/collective/zestawy_dla_uczniow/zestaw_010.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_010.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
   <si>
     <t>ZESTAW ZADAŃ NR 10 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Hanna Urbaniak</t>
-  </si>
-  <si>
-    <t>Lena Wójcik</t>
-  </si>
-  <si>
-    <t>Julia Borkowska</t>
-  </si>
-  <si>
-    <t>Adam Grabowski</t>
-  </si>
-  <si>
-    <t>Jan Kwiatkowski</t>
+    <t>Lena Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Oliwia Król</t>
+  </si>
+  <si>
+    <t>Wojciech Kaczmarek</t>
+  </si>
+  <si>
+    <t>Hanna Wilk</t>
+  </si>
+  <si>
+    <t>Szymon Jankowski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>15,10</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>12,00</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,70</t>
+  </si>
+  <si>
     <t>Temperówka</t>
   </si>
   <si>
+    <t>3,90</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
     <t>2,80</t>
   </si>
   <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>2,90</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>3,40</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>4,70</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>5,90</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>0,70</t>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>0,80</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>8,33</t>
+    <t>22,92</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>29,63</t>
+    <t>6,81</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>3,87</t>
+    <t>26,83</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>16,86</t>
+    <t>29,19</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>9,50</t>
+    <t>13,85</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>16,50</t>
-  </si>
-  <si>
-    <t>29,65</t>
-  </si>
-  <si>
-    <t>27,20</t>
-  </si>
-  <si>
-    <t>29,75</t>
-  </si>
-  <si>
-    <t>20,66</t>
+    <t>11,47</t>
+  </si>
+  <si>
+    <t>15,18</t>
+  </si>
+  <si>
+    <t>21,74</t>
+  </si>
+  <si>
+    <t>23,03</t>
+  </si>
+  <si>
+    <t>16,99</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>28,70</t>
-  </si>
-  <si>
-    <t>9,23</t>
-  </si>
-  <si>
-    <t>2,53</t>
-  </si>
-  <si>
-    <t>10,75</t>
-  </si>
-  <si>
-    <t>10,90</t>
+    <t>19,53</t>
+  </si>
+  <si>
+    <t>20,76</t>
+  </si>
+  <si>
+    <t>26,02</t>
+  </si>
+  <si>
+    <t>15,44</t>
+  </si>
+  <si>
+    <t>6,42</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,34 +340,28 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Zawadzka</t>
-  </si>
-  <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Woźniak</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Mazur</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Wojciechowski</t>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Wilk</t>
   </si>
   <si>
     <t>Zuzanna</t>
   </si>
   <si>
-    <t>Wilk</t>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Jaworska</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
+  </si>
+  <si>
+    <t>Król</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -403,118 +397,139 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Kacper Kaczmarek</t>
-  </si>
-  <si>
-    <t>07.01.1999</t>
-  </si>
-  <si>
-    <t>12 962,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Malinowska</t>
-  </si>
-  <si>
-    <t>10.11.1988</t>
-  </si>
-  <si>
-    <t>6 642,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Krawczyk</t>
-  </si>
-  <si>
-    <t>26.07.1998</t>
-  </si>
-  <si>
-    <t>4 833,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Maciejewska</t>
-  </si>
-  <si>
-    <t>08.09.1992</t>
-  </si>
-  <si>
-    <t>13 285,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Kwiatkowski</t>
-  </si>
-  <si>
-    <t>05.05.1998</t>
-  </si>
-  <si>
-    <t>6 975,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Lewandowski</t>
-  </si>
-  <si>
-    <t>27.05.1995</t>
-  </si>
-  <si>
-    <t>11 070,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Wojciechowski</t>
-  </si>
-  <si>
-    <t>23.05.1981</t>
-  </si>
-  <si>
-    <t>3 659,00 zł</t>
-  </si>
-  <si>
-    <t>26.08.1995</t>
-  </si>
-  <si>
-    <t>14 521,00 zł</t>
+    <t>Oliwia Piekarska</t>
+  </si>
+  <si>
+    <t>16.11.1991</t>
+  </si>
+  <si>
+    <t>3 665,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Kowalski</t>
+  </si>
+  <si>
+    <t>20.10.1991</t>
+  </si>
+  <si>
+    <t>5 230,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Mazur</t>
+  </si>
+  <si>
+    <t>27.11.1990</t>
+  </si>
+  <si>
+    <t>8 885,00 zł</t>
   </si>
   <si>
     <t>Amelia Górska</t>
   </si>
   <si>
-    <t>09.05.1980</t>
-  </si>
-  <si>
-    <t>13 257,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Lewandowski</t>
-  </si>
-  <si>
-    <t>15.01.1977</t>
-  </si>
-  <si>
-    <t>3 057,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Kaczmarek</t>
-  </si>
-  <si>
-    <t>06.04.1985</t>
-  </si>
-  <si>
-    <t>12 607,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Krawczyk</t>
-  </si>
-  <si>
-    <t>16.04.1975</t>
-  </si>
-  <si>
-    <t>2 635,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Jankowski</t>
-  </si>
-  <si>
-    <t>24.07.1998</t>
-  </si>
-  <si>
-    <t>4 759,00 zł</t>
+    <t>11.07.1995</t>
+  </si>
+  <si>
+    <t>11 287,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Lis</t>
+  </si>
+  <si>
+    <t>16.07.1997</t>
+  </si>
+  <si>
+    <t>13 310,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Zieliński</t>
+  </si>
+  <si>
+    <t>17.06.1986</t>
+  </si>
+  <si>
+    <t>7 895,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Woźniak</t>
+  </si>
+  <si>
+    <t>18.05.1992</t>
+  </si>
+  <si>
+    <t>4 975,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Krawczyk</t>
+  </si>
+  <si>
+    <t>03.06.1998</t>
+  </si>
+  <si>
+    <t>6 664,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Górska</t>
+  </si>
+  <si>
+    <t>22.02.1979</t>
+  </si>
+  <si>
+    <t>4 060,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Olszewska</t>
+  </si>
+  <si>
+    <t>03.10.1985</t>
+  </si>
+  <si>
+    <t>14 172,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Zieliński</t>
+  </si>
+  <si>
+    <t>18.02.1998</t>
+  </si>
+  <si>
+    <t>5 394,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Wiśniewski</t>
+  </si>
+  <si>
+    <t>07.10.2005</t>
+  </si>
+  <si>
+    <t>14 135,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Sikorska</t>
+  </si>
+  <si>
+    <t>14.05.1985</t>
+  </si>
+  <si>
+    <t>10 798,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Zawadzka</t>
+  </si>
+  <si>
+    <t>19.04.2000</t>
+  </si>
+  <si>
+    <t>2 971,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Czarnecka</t>
+  </si>
+  <si>
+    <t>02.05.2000</t>
+  </si>
+  <si>
+    <t>3 596,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -586,16 +601,88 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
+    <t>maj</t>
   </si>
   <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 462,00 zł</t>
-  </si>
-  <si>
-    <t>2 003,00 zł</t>
+    <t>1 318,00 zł</t>
+  </si>
+  <si>
+    <t>1 687,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>780,00 zł</t>
+  </si>
+  <si>
+    <t>1 022,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 209,00 zł</t>
+  </si>
+  <si>
+    <t>1 584,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>1 404,00 zł</t>
+  </si>
+  <si>
+    <t>1 587,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 213,00 zł</t>
+  </si>
+  <si>
+    <t>1 492,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 266,00 zł</t>
+  </si>
+  <si>
+    <t>1 583,00 zł</t>
   </si>
   <si>
     <t>Katarzyna Mazur</t>
@@ -604,289 +691,232 @@
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 161,00 zł</t>
-  </si>
-  <si>
-    <t>1 556,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
+    <t>517,00 zł</t>
+  </si>
+  <si>
+    <t>605,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>926,00 zł</t>
+  </si>
+  <si>
+    <t>1 278,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>1 466,00 zł</t>
+  </si>
+  <si>
+    <t>2 052,00 zł</t>
   </si>
   <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>Marzec</t>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 134,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 340,00 zł</t>
+  </si>
+  <si>
+    <t>1 849,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>1 043,00 zł</t>
+  </si>
+  <si>
+    <t>1 210,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 110,00 zł</t>
+  </si>
+  <si>
+    <t>1 521,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>1 281,00 zł</t>
+  </si>
+  <si>
+    <t>1 717,00 zł</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>810,00 zł</t>
+  </si>
+  <si>
+    <t>1 118,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 060,00 zł</t>
+  </si>
+  <si>
+    <t>1 357,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 195,00 zł</t>
+  </si>
+  <si>
+    <t>1 386,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 354,00 zł</t>
+  </si>
+  <si>
+    <t>1 611,00 zł</t>
   </si>
   <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 081,00 zł</t>
-  </si>
-  <si>
-    <t>1 319,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 340,00 zł</t>
-  </si>
-  <si>
-    <t>1 755,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>523,00 zł</t>
-  </si>
-  <si>
-    <t>638,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 295,00 zł</t>
-  </si>
-  <si>
-    <t>1 567,00 zł</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>736,00 zł</t>
-  </si>
-  <si>
-    <t>1 023,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 386,00 zł</t>
-  </si>
-  <si>
-    <t>1 802,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
+    <t>1 366,00 zł</t>
+  </si>
+  <si>
+    <t>1 516,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>973,00 zł</t>
+  </si>
+  <si>
+    <t>1 265,00 zł</t>
+  </si>
+  <si>
+    <t>1 312,00 zł</t>
+  </si>
+  <si>
+    <t>1 653,00 zł</t>
+  </si>
+  <si>
+    <t>1 472,00 zł</t>
+  </si>
+  <si>
+    <t>1 855,00 zł</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 231,00 zł</t>
+  </si>
+  <si>
+    <t>1 416,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>633,00 zł</t>
+  </si>
+  <si>
+    <t>753,00 zł</t>
   </si>
   <si>
     <t>mazowieckie</t>
   </si>
   <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 431,00 zł</t>
-  </si>
-  <si>
-    <t>1 732,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 124,00 zł</t>
-  </si>
-  <si>
-    <t>1 529,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>1 236,00 zł</t>
-  </si>
-  <si>
-    <t>1 730,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 117,00 zł</t>
-  </si>
-  <si>
-    <t>1 564,00 zł</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 417,00 zł</t>
-  </si>
-  <si>
-    <t>1 913,00 zł</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>977,00 zł</t>
-  </si>
-  <si>
-    <t>1 211,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>1 301,00 zł</t>
-  </si>
-  <si>
-    <t>1 444,00 zł</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>609,00 zł</t>
-  </si>
-  <si>
-    <t>798,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>859,00 zł</t>
-  </si>
-  <si>
-    <t>1 151,00 zł</t>
-  </si>
-  <si>
-    <t>1 300,00 zł</t>
-  </si>
-  <si>
-    <t>1 586,00 zł</t>
-  </si>
-  <si>
-    <t>768,00 zł</t>
-  </si>
-  <si>
-    <t>1 029,00 zł</t>
-  </si>
-  <si>
-    <t>1 220,00 zł</t>
-  </si>
-  <si>
-    <t>1 501,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>692,00 zł</t>
-  </si>
-  <si>
-    <t>969,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>1 334,00 zł</t>
-  </si>
-  <si>
-    <t>1 641,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>1 122,00 zł</t>
-  </si>
-  <si>
-    <t>1 302,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>1 358,00 zł</t>
-  </si>
-  <si>
-    <t>1 765,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 403,00 zł</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>918,00 zł</t>
-  </si>
-  <si>
-    <t>1 212,00 zł</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>797,00 zł</t>
-  </si>
-  <si>
-    <t>1 028,00 zł</t>
-  </si>
-  <si>
-    <t>1 041,00 zł</t>
-  </si>
-  <si>
-    <t>1 405,00 zł</t>
+    <t>641,00 zł</t>
+  </si>
+  <si>
+    <t>763,00 zł</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 225,00 zł</t>
+  </si>
+  <si>
+    <t>1 482,00 zł</t>
+  </si>
+  <si>
+    <t>1 474,00 zł</t>
+  </si>
+  <si>
+    <t>1 901,00 zł</t>
+  </si>
+  <si>
+    <t>893,00 zł</t>
+  </si>
+  <si>
+    <t>991,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1443,19 +1473,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1464,19 +1494,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
       <c r="D18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
         <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1485,19 +1515,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
         <v>6</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1506,19 +1536,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
         <v>6</v>
       </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
       <c r="E20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1530,16 +1560,16 @@
         <v>5</v>
       </c>
       <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>5</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1548,19 +1578,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="F22" s="3">
         <v>2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1569,19 +1599,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3">
         <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1590,19 +1620,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3">
         <v>6</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1611,19 +1641,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
         <v>4</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5</v>
-      </c>
-      <c r="F25" s="3">
-        <v>6</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1632,19 +1662,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1653,16 +1683,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
@@ -1674,19 +1704,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3">
         <v>2</v>
-      </c>
-      <c r="F28" s="3">
-        <v>6</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1808,7 +1838,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1823,7 +1853,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1838,7 +1868,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1853,7 +1883,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1868,7 +1898,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1883,7 +1913,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2000,7 +2030,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2012,7 +2042,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2024,7 +2054,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2036,7 +2066,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2048,7 +2078,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2096,7 +2126,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2108,7 +2138,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2120,7 +2150,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2132,7 +2162,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2144,7 +2174,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2192,7 +2222,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2204,7 +2234,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2216,7 +2246,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2228,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2240,7 +2270,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2383,25 +2413,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
         <v>6</v>
       </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
       <c r="F12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
         <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2412,28 +2442,28 @@
         <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
       </c>
       <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
         <v>3</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
       </c>
       <c r="I13" s="3">
         <v>5</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2441,31 +2471,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
         <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>5</v>
-      </c>
-      <c r="J14" s="3">
-        <v>4</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2473,28 +2503,28 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
       <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
         <v>2</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
       </c>
       <c r="H15" s="3">
         <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
         <v>5</v>
@@ -2505,38 +2535,38 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
         <v>4</v>
       </c>
       <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3">
         <v>3</v>
       </c>
-      <c r="H16" s="3">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>6</v>
-      </c>
-      <c r="J16" s="3">
-        <v>5</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -2552,7 +2582,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -2583,10 +2613,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A29" sqref="A29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2598,7 +2628,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2608,210 +2638,232 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
+      <c r="B24" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="C24" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="14" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>169</v>
+      <c r="A28" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2848,7 +2900,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2858,75 +2910,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2934,22 +2986,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2957,22 +3009,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2980,22 +3032,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3003,22 +3055,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3026,22 +3078,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3049,22 +3101,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3072,22 +3124,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3095,22 +3147,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3118,22 +3170,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3141,22 +3193,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3164,22 +3216,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3187,22 +3239,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3210,22 +3262,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3233,19 +3285,19 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>204</v>
@@ -3256,22 +3308,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3279,22 +3331,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3302,22 +3354,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3325,22 +3377,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3348,22 +3400,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3371,22 +3423,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3394,22 +3446,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3417,22 +3469,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3440,22 +3492,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3463,22 +3515,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3486,22 +3538,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3509,22 +3561,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3532,22 +3584,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>284</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3555,67 +3607,67 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>222</v>
+        <v>286</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>218</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="13" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_010.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_010.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
   <si>
     <t>ZESTAW ZADAŃ NR 10 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 10 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>15,10</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>12,00</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,70</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>3,90</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>2,80</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>0,80</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>22,92</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>6,81</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>26,83</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>29,19</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>13,85</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>11,47</t>
-  </si>
-  <si>
-    <t>15,18</t>
-  </si>
-  <si>
-    <t>21,74</t>
-  </si>
-  <si>
-    <t>23,03</t>
-  </si>
-  <si>
-    <t>16,99</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>19,53</t>
-  </si>
-  <si>
-    <t>20,76</t>
-  </si>
-  <si>
-    <t>26,02</t>
-  </si>
-  <si>
-    <t>15,44</t>
-  </si>
-  <si>
-    <t>6,42</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -403,135 +325,90 @@
     <t>16.11.1991</t>
   </si>
   <si>
-    <t>3 665,00 zł</t>
-  </si>
-  <si>
     <t>Adam Kowalski</t>
   </si>
   <si>
     <t>20.10.1991</t>
   </si>
   <si>
-    <t>5 230,00 zł</t>
-  </si>
-  <si>
     <t>Filip Mazur</t>
   </si>
   <si>
     <t>27.11.1990</t>
   </si>
   <si>
-    <t>8 885,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Górska</t>
   </si>
   <si>
     <t>11.07.1995</t>
   </si>
   <si>
-    <t>11 287,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Lis</t>
   </si>
   <si>
     <t>16.07.1997</t>
   </si>
   <si>
-    <t>13 310,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Zieliński</t>
   </si>
   <si>
     <t>17.06.1986</t>
   </si>
   <si>
-    <t>7 895,00 zł</t>
-  </si>
-  <si>
     <t>Jan Woźniak</t>
   </si>
   <si>
     <t>18.05.1992</t>
   </si>
   <si>
-    <t>4 975,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Krawczyk</t>
   </si>
   <si>
     <t>03.06.1998</t>
   </si>
   <si>
-    <t>6 664,00 zł</t>
-  </si>
-  <si>
     <t>Maja Górska</t>
   </si>
   <si>
     <t>22.02.1979</t>
   </si>
   <si>
-    <t>4 060,00 zł</t>
-  </si>
-  <si>
     <t>Lena Olszewska</t>
   </si>
   <si>
     <t>03.10.1985</t>
   </si>
   <si>
-    <t>14 172,00 zł</t>
-  </si>
-  <si>
     <t>Jan Zieliński</t>
   </si>
   <si>
     <t>18.02.1998</t>
   </si>
   <si>
-    <t>5 394,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Wiśniewski</t>
   </si>
   <si>
     <t>07.10.2005</t>
   </si>
   <si>
-    <t>14 135,00 zł</t>
-  </si>
-  <si>
     <t>Maja Sikorska</t>
   </si>
   <si>
     <t>14.05.1985</t>
   </si>
   <si>
-    <t>10 798,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Zawadzka</t>
   </si>
   <si>
     <t>19.04.2000</t>
   </si>
   <si>
-    <t>2 971,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Czarnecka</t>
   </si>
   <si>
     <t>02.05.2000</t>
   </si>
   <si>
-    <t>3 596,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -544,9 +421,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -607,12 +481,6 @@
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 318,00 zł</t>
-  </si>
-  <si>
-    <t>1 687,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -625,12 +493,6 @@
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>780,00 zł</t>
-  </si>
-  <si>
-    <t>1 022,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -643,60 +505,30 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 209,00 zł</t>
-  </si>
-  <si>
-    <t>1 584,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>1 404,00 zł</t>
-  </si>
-  <si>
-    <t>1 587,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 213,00 zł</t>
-  </si>
-  <si>
-    <t>1 492,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 266,00 zł</t>
-  </si>
-  <si>
-    <t>1 583,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>517,00 zł</t>
-  </si>
-  <si>
-    <t>605,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -709,57 +541,30 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>926,00 zł</t>
-  </si>
-  <si>
-    <t>1 278,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
     <t>czerwiec</t>
   </si>
   <si>
-    <t>1 466,00 zł</t>
-  </si>
-  <si>
-    <t>2 052,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 134,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 340,00 zł</t>
-  </si>
-  <si>
-    <t>1 849,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
     <t>lubelskie</t>
   </si>
   <si>
-    <t>1 043,00 zł</t>
-  </si>
-  <si>
-    <t>1 210,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -769,30 +574,12 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 110,00 zł</t>
-  </si>
-  <si>
-    <t>1 521,00 zł</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>1 281,00 zł</t>
-  </si>
-  <si>
-    <t>1 717,00 zł</t>
-  </si>
-  <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>810,00 zł</t>
-  </si>
-  <si>
-    <t>1 118,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -802,12 +589,6 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 060,00 zł</t>
-  </si>
-  <si>
-    <t>1 357,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -820,12 +601,6 @@
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 195,00 zł</t>
-  </si>
-  <si>
-    <t>1 386,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -835,88 +610,22 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 354,00 zł</t>
-  </si>
-  <si>
-    <t>1 611,00 zł</t>
-  </si>
-  <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 366,00 zł</t>
-  </si>
-  <si>
-    <t>1 516,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
-    <t>973,00 zł</t>
-  </si>
-  <si>
-    <t>1 265,00 zł</t>
-  </si>
-  <si>
-    <t>1 312,00 zł</t>
-  </si>
-  <si>
-    <t>1 653,00 zł</t>
-  </si>
-  <si>
-    <t>1 472,00 zł</t>
-  </si>
-  <si>
-    <t>1 855,00 zł</t>
-  </si>
-  <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 231,00 zł</t>
-  </si>
-  <si>
-    <t>1 416,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
-    <t>633,00 zł</t>
-  </si>
-  <si>
-    <t>753,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
-    <t>641,00 zł</t>
-  </si>
-  <si>
-    <t>763,00 zł</t>
-  </si>
-  <si>
     <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 225,00 zł</t>
-  </si>
-  <si>
-    <t>1 482,00 zł</t>
-  </si>
-  <si>
-    <t>1 474,00 zł</t>
-  </si>
-  <si>
-    <t>1 901,00 zł</t>
-  </si>
-  <si>
-    <t>893,00 zł</t>
-  </si>
-  <si>
-    <t>991,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -938,7 +647,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -995,14 +706,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1013,8 +724,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1045,30 +756,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1371,7 +1083,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1446,25 +1158,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1487,7 +1199,7 @@
       <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1508,7 +1220,7 @@
       <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1529,7 +1241,7 @@
       <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1550,7 +1262,7 @@
       <c r="F20" s="3">
         <v>4</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1571,7 +1283,7 @@
       <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1592,7 +1304,7 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1613,7 +1325,7 @@
       <c r="F23" s="3">
         <v>6</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1634,7 +1346,7 @@
       <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1655,7 +1367,7 @@
       <c r="F25" s="3">
         <v>4</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1676,7 +1388,7 @@
       <c r="F26" s="3">
         <v>5</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1697,7 +1409,7 @@
       <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1718,27 +1430,17 @@
       <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1772,7 +1474,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1792,7 +1494,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1802,29 +1504,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1832,99 +1534,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>15.1</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>12</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.7</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3.9</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2.8</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.8</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1957,7 +1659,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1982,113 +1684,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>22.92</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>6.81</v>
       </c>
       <c r="C16" s="3">
         <v>27</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>26.83</v>
       </c>
       <c r="C17" s="3">
         <v>33</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>29.19</v>
       </c>
       <c r="C18" s="3">
         <v>36</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>13.85</v>
       </c>
       <c r="C19" s="3">
         <v>22</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2097,94 +1799,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>11.47</v>
       </c>
       <c r="C24" s="3">
         <v>31</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>15.18</v>
       </c>
       <c r="C25" s="3">
         <v>47</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>21.74</v>
       </c>
       <c r="C26" s="3">
         <v>29</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>23.030000000000001</v>
       </c>
       <c r="C27" s="3">
         <v>35</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>16.99</v>
       </c>
       <c r="C28" s="3">
         <v>38</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2193,98 +1895,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>19.53</v>
       </c>
       <c r="C33" s="3">
         <v>23</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>20.76</v>
       </c>
       <c r="C34" s="3">
         <v>40</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>26.02</v>
       </c>
       <c r="C35" s="3">
         <v>46</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>15.44</v>
       </c>
       <c r="C36" s="3">
         <v>29</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>6.42</v>
       </c>
       <c r="C37" s="3">
         <v>49</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2307,7 +2009,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2327,90 +2029,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -2433,16 +2135,16 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -2465,16 +2167,16 @@
       <c r="J13" s="3">
         <v>3</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -2497,16 +2199,16 @@
       <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -2529,16 +2231,16 @@
       <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
@@ -2561,40 +2263,40 @@
       <c r="J16" s="3">
         <v>6</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2627,244 +2329,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>116</v>
+      <c r="A1" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>124</v>
+      <c r="A10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>127</v>
+        <v>100</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3665</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>102</v>
+      </c>
+      <c r="C12" s="7">
+        <v>5230</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>104</v>
+      </c>
+      <c r="C13" s="7">
+        <v>8885</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>136</v>
+        <v>106</v>
+      </c>
+      <c r="C14" s="7">
+        <v>11287</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>139</v>
+        <v>108</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13310</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>142</v>
+        <v>110</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7895</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>145</v>
+        <v>112</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4975</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>148</v>
+        <v>114</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6664</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>151</v>
+        <v>116</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4060</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>154</v>
+        <v>118</v>
+      </c>
+      <c r="C20" s="7">
+        <v>14172</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>157</v>
+        <v>120</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5394</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>160</v>
+        <v>122</v>
+      </c>
+      <c r="C22" s="7">
+        <v>14135</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10798</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>166</v>
+        <v>126</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2971</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>169</v>
+        <v>128</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3596</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
-        <v>170</v>
+      <c r="A28" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2899,86 +2595,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>175</v>
+      <c r="A1" s="15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>192</v>
+      <c r="A15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2986,22 +2682,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>196</v>
+        <v>152</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1318</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1687</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3009,22 +2705,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>202</v>
+        <v>156</v>
+      </c>
+      <c r="D17" s="7">
+        <v>780</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1022</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3032,22 +2728,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>208</v>
+        <v>160</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1209</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1584</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3055,22 +2751,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>212</v>
+        <v>156</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1404</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1587</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3078,22 +2774,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>216</v>
+        <v>164</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1213</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1492</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3101,22 +2797,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>220</v>
+        <v>166</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1266</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1583</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3124,22 +2820,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>224</v>
+        <v>166</v>
+      </c>
+      <c r="D22" s="7">
+        <v>517</v>
+      </c>
+      <c r="E22" s="7">
+        <v>605</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3147,22 +2843,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>230</v>
+        <v>172</v>
+      </c>
+      <c r="D23" s="7">
+        <v>926</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1278</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3170,22 +2866,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>234</v>
+        <v>156</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1466</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2052</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3193,22 +2889,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>237</v>
+        <v>176</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1022</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1134</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3216,22 +2912,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>241</v>
+        <v>178</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1340</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1849</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3239,22 +2935,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>245</v>
+        <v>156</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1043</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1210</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3262,22 +2958,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1110</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1521</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3285,22 +2981,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>253</v>
+        <v>152</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1281</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1717</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3308,22 +3004,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>256</v>
+        <v>185</v>
+      </c>
+      <c r="D30" s="7">
+        <v>810</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1118</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3331,22 +3027,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>261</v>
+        <v>188</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1060</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1357</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3354,22 +3050,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>267</v>
+        <v>192</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1195</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1386</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3377,22 +3073,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>272</v>
+        <v>195</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1354</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1611</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3400,22 +3096,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>275</v>
+        <v>196</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1366</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1516</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>276</v>
+        <v>197</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3423,22 +3119,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>278</v>
+        <v>156</v>
+      </c>
+      <c r="D35" s="7">
+        <v>973</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1265</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3446,22 +3142,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>280</v>
+        <v>176</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1312</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1653</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3469,22 +3165,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1472</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1855</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3492,22 +3188,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>285</v>
+        <v>198</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1231</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1416</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3515,22 +3211,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>288</v>
+        <v>185</v>
+      </c>
+      <c r="D39" s="7">
+        <v>633</v>
+      </c>
+      <c r="E39" s="7">
+        <v>753</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>289</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3538,22 +3234,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>291</v>
+        <v>188</v>
+      </c>
+      <c r="D40" s="7">
+        <v>641</v>
+      </c>
+      <c r="E40" s="7">
+        <v>763</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3561,22 +3257,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>294</v>
+        <v>201</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1225</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1482</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3584,22 +3280,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>296</v>
+        <v>198</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1474</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1901</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3607,68 +3303,58 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>298</v>
+        <v>176</v>
+      </c>
+      <c r="D43" s="7">
+        <v>893</v>
+      </c>
+      <c r="E43" s="7">
+        <v>991</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>289</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>170</v>
+      <c r="A46" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>299</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>300</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>301</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>302</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>303</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_010.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_010.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>ZESTAW ZADAŃ NR 10 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Lena Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Oliwia Król</t>
-  </si>
-  <si>
-    <t>Wojciech Kaczmarek</t>
-  </si>
-  <si>
-    <t>Hanna Wilk</t>
-  </si>
-  <si>
-    <t>Szymon Jankowski</t>
+    <t>Maja Kubiak</t>
+  </si>
+  <si>
+    <t>Adam Mazur</t>
+  </si>
+  <si>
+    <t>Jakub Krawczyk</t>
+  </si>
+  <si>
+    <t>Amelia Jaworska</t>
+  </si>
+  <si>
+    <t>Anna Jaworska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 10 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -148,21 +152,21 @@
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
     <t>Ołówek HB</t>
   </si>
   <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,31 +266,34 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
   </si>
   <si>
     <t>Lena</t>
   </si>
   <si>
-    <t>Wilk</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Jaworska</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
-  </si>
-  <si>
-    <t>Król</t>
+    <t>Bednarska</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Borkowska</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Kubiak</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Piotrowski</t>
+  </si>
+  <si>
+    <t>Emilia</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -319,109 +329,136 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
+    <t>Kacper Grabowski</t>
+  </si>
+  <si>
+    <t>Wojciech Wójcik</t>
+  </si>
+  <si>
+    <t>Anna Górska</t>
+  </si>
+  <si>
+    <t>Filip Wiśniewski</t>
+  </si>
+  <si>
+    <t>Antoni Kowalczyk</t>
+  </si>
+  <si>
+    <t>Kacper Jankowski</t>
+  </si>
+  <si>
+    <t>Oliwia Kubiak</t>
+  </si>
+  <si>
+    <t>Lena Król</t>
+  </si>
+  <si>
+    <t>Anna Wójcik</t>
+  </si>
+  <si>
+    <t>Wojciech Zieliński</t>
+  </si>
+  <si>
+    <t>Jakub Kamiński</t>
+  </si>
+  <si>
+    <t>Natalia Piekarska</t>
+  </si>
+  <si>
+    <t>Emilia Olszewska</t>
+  </si>
+  <si>
+    <t>Maja Jaworska</t>
+  </si>
+  <si>
+    <t>Antoni Kowalski</t>
+  </si>
+  <si>
+    <t>Wojciech Piotrowski</t>
+  </si>
+  <si>
+    <t>Anna Król</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Natalia Malinowska</t>
+  </si>
+  <si>
+    <t>Adam Wójcik</t>
+  </si>
+  <si>
     <t>Oliwia Piekarska</t>
   </si>
   <si>
-    <t>16.11.1991</t>
-  </si>
-  <si>
-    <t>Adam Kowalski</t>
-  </si>
-  <si>
-    <t>20.10.1991</t>
-  </si>
-  <si>
-    <t>Filip Mazur</t>
-  </si>
-  <si>
-    <t>27.11.1990</t>
-  </si>
-  <si>
-    <t>Amelia Górska</t>
-  </si>
-  <si>
-    <t>11.07.1995</t>
-  </si>
-  <si>
-    <t>Oliwia Lis</t>
-  </si>
-  <si>
-    <t>16.07.1997</t>
-  </si>
-  <si>
-    <t>Wojciech Zieliński</t>
-  </si>
-  <si>
-    <t>17.06.1986</t>
-  </si>
-  <si>
-    <t>Jan Woźniak</t>
-  </si>
-  <si>
-    <t>18.05.1992</t>
-  </si>
-  <si>
-    <t>Kacper Krawczyk</t>
-  </si>
-  <si>
-    <t>03.06.1998</t>
-  </si>
-  <si>
-    <t>Maja Górska</t>
-  </si>
-  <si>
-    <t>22.02.1979</t>
-  </si>
-  <si>
-    <t>Lena Olszewska</t>
-  </si>
-  <si>
-    <t>03.10.1985</t>
-  </si>
-  <si>
-    <t>Jan Zieliński</t>
-  </si>
-  <si>
-    <t>18.02.1998</t>
-  </si>
-  <si>
-    <t>Jakub Wiśniewski</t>
-  </si>
-  <si>
-    <t>07.10.2005</t>
-  </si>
-  <si>
-    <t>Maja Sikorska</t>
-  </si>
-  <si>
-    <t>14.05.1985</t>
-  </si>
-  <si>
-    <t>Oliwia Zawadzka</t>
-  </si>
-  <si>
-    <t>19.04.2000</t>
-  </si>
-  <si>
-    <t>Oliwia Czarnecka</t>
-  </si>
-  <si>
-    <t>02.05.2000</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Jan Dąbrowski</t>
+  </si>
+  <si>
+    <t>Amelia Sadowska</t>
+  </si>
+  <si>
+    <t>Natalia Borkowska</t>
+  </si>
+  <si>
+    <t>Adam Zieliński</t>
+  </si>
+  <si>
+    <t>Maja Czarnecka</t>
+  </si>
+  <si>
+    <t>Zuzanna Sadowska</t>
+  </si>
+  <si>
+    <t>Antoni Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Natalia Król</t>
+  </si>
+  <si>
+    <t>Maja Wilk</t>
+  </si>
+  <si>
+    <t>Mikołaj Zieliński</t>
+  </si>
+  <si>
+    <t>Emilia Borkowska</t>
+  </si>
+  <si>
+    <t>Wojciech Kozłowski</t>
+  </si>
+  <si>
+    <t>Natalia Maciejewska</t>
+  </si>
+  <si>
+    <t>Szymon Dąbrowski</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -478,154 +515,142 @@
     <t>maj</t>
   </si>
   <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>Barbara Kozłowska</t>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
   </si>
   <si>
     <t>Anna Nowak</t>
   </si>
   <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>luty</t>
+    <t>Monitor 24" 4K</t>
   </si>
   <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
   </si>
   <si>
     <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -697,7 +722,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,12 +745,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -756,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -767,13 +786,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1080,7 +1098,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1185,19 +1203,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
         <v>5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>2</v>
       </c>
-      <c r="D17" s="3">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1206,16 +1224,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -1227,13 +1245,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
@@ -1248,19 +1266,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
         <v>5</v>
       </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="F20" s="3">
         <v>6</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1272,16 +1290,16 @@
         <v>5</v>
       </c>
       <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
         <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>5</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1296,13 +1314,13 @@
         <v>2</v>
       </c>
       <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1311,19 +1329,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
         <v>4</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>6</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1332,16 +1350,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>3</v>
@@ -1353,7 +1371,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
         <v>6</v>
@@ -1362,10 +1380,10 @@
         <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1377,16 +1395,16 @@
         <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1395,19 +1413,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1416,19 +1434,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
       <c r="D28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1441,6 +1459,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1474,7 +1498,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1494,7 +1518,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1504,29 +1528,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1534,99 +1558,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>15.1</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>16.9</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.2</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.7</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1.4</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3.9</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6.7</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2.8</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.8</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5.7</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1643,10 +1667,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1659,7 +1683,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1684,27 +1708,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1712,85 +1736,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>22.92</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>18.13</v>
       </c>
       <c r="C15" s="3">
-        <v>14</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>6.81</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>7.83</v>
       </c>
       <c r="C16" s="3">
-        <v>27</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>26.83</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>30.13</v>
       </c>
       <c r="C17" s="3">
-        <v>33</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>29.19</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>13.35</v>
       </c>
       <c r="C18" s="3">
-        <v>36</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>13.85</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>12.93</v>
       </c>
       <c r="C19" s="3">
-        <v>22</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1799,8 +1823,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1808,85 +1832,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>11.47</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3.82</v>
       </c>
       <c r="C24" s="3">
-        <v>31</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>15.18</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>5.68</v>
       </c>
       <c r="C25" s="3">
-        <v>47</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>21.74</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>22.039999999999999</v>
       </c>
       <c r="C26" s="3">
-        <v>29</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
         <v>23.030000000000001</v>
       </c>
       <c r="C27" s="3">
-        <v>35</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>16.99</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>19.45</v>
       </c>
       <c r="C28" s="3">
-        <v>38</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1895,8 +1919,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1904,89 +1928,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>19.53</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1.37</v>
       </c>
       <c r="C33" s="3">
-        <v>23</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>20.76</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>16.83</v>
       </c>
       <c r="C34" s="3">
-        <v>40</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>26.02</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>22.050000000000001</v>
       </c>
       <c r="C35" s="3">
-        <v>46</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>15.44</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>9.42</v>
       </c>
       <c r="C36" s="3">
-        <v>29</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>6.42</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>30.02</v>
       </c>
       <c r="C37" s="3">
-        <v>49</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2029,99 +2061,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
@@ -2133,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2141,13 +2173,13 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -2156,16 +2188,16 @@
         <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2173,31 +2205,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5</v>
-      </c>
       <c r="H14" s="3">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2205,31 +2237,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
       <c r="F15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
         <v>2</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3</v>
       </c>
       <c r="I15" s="3">
         <v>3</v>
       </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2237,22 +2269,22 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
         <v>4</v>
@@ -2261,14 +2293,14 @@
         <v>3</v>
       </c>
       <c r="J16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2284,7 +2316,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2315,10 +2347,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A29" sqref="A29:B31"/>
+      <selection activeCell="A31" sqref="A31:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2329,238 +2361,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>90</v>
+      <c r="A1" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="7">
-        <v>3665</v>
+        <v>102</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C11" s="8">
+        <v>8536</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="7">
-        <v>5230</v>
+        <v>103</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10533</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="7">
-        <v>8885</v>
+      <c r="B13" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C13" s="8">
+        <v>14903</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="7">
-        <v>11287</v>
+      <c r="B14" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C14" s="8">
+        <v>14547</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="7">
-        <v>13310</v>
+        <v>106</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C15" s="8">
+        <v>14808</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="7">
-        <v>7895</v>
+        <v>107</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C16" s="8">
+        <v>7000</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="7">
-        <v>4975</v>
+        <v>108</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C17" s="8">
+        <v>13874</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="7">
-        <v>6664</v>
+        <v>109</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C18" s="8">
+        <v>10167</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4060</v>
+        <v>110</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C19" s="8">
+        <v>10076</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="7">
-        <v>14172</v>
+        <v>111</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C20" s="8">
+        <v>13886</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="7">
-        <v>5394</v>
+        <v>112</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C21" s="8">
+        <v>13383</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="7">
-        <v>14135</v>
+        <v>113</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3975</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="7">
-        <v>10798</v>
+        <v>114</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C23" s="8">
+        <v>8183</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2971</v>
+        <v>115</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C24" s="8">
+        <v>7640</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="7">
-        <v>3596</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C25" s="8">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C26" s="8">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C27" s="8">
+        <v>8359</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="6"/>
+      <c r="A30" s="16" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2577,10 +2631,230 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A10" sqref="A10:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="3">
+        <v>160</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3">
+        <v>118</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="3">
+        <v>141</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="3">
+        <v>130</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="3">
+        <v>155</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="3">
+        <v>104</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="3">
+        <v>110</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="3">
+        <v>181</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="3">
+        <v>194</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="3">
+        <v>185</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="3">
+        <v>115</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="3">
+        <v>186</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="3">
+        <v>197</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="3">
+        <v>138</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="3">
+        <v>163</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="3">
+        <v>146</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="3">
+        <v>180</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2595,86 +2869,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>133</v>
+      <c r="A1" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2682,22 +2956,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1318</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1687</v>
+        <v>164</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1327</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1460</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2705,22 +2979,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="7">
-        <v>780</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1022</v>
+        <v>164</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1107</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1384</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2728,22 +3002,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1209</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1584</v>
+        <v>171</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1048</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1205</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2751,22 +3025,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1404</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1587</v>
+        <v>174</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1446</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1779</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2774,22 +3048,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1213</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1492</v>
+        <v>178</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1272</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1781</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2797,22 +3071,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1266</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1583</v>
+        <v>180</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1425</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1767</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2820,22 +3094,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="7">
-        <v>517</v>
-      </c>
-      <c r="E22" s="7">
-        <v>605</v>
+        <v>178</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1184</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1504</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2843,22 +3117,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="7">
-        <v>926</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1278</v>
+        <v>185</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1180</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1357</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2866,22 +3140,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1466</v>
-      </c>
-      <c r="E24" s="7">
-        <v>2052</v>
+        <v>187</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1167</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1517</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2889,22 +3163,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1022</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1134</v>
+        <v>190</v>
+      </c>
+      <c r="D25" s="8">
+        <v>578</v>
+      </c>
+      <c r="E25" s="8">
+        <v>676</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2912,22 +3186,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1340</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1849</v>
+        <v>192</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1163</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1535</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2935,22 +3209,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1043</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1210</v>
+        <v>193</v>
+      </c>
+      <c r="D27" s="8">
+        <v>535</v>
+      </c>
+      <c r="E27" s="8">
+        <v>642</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2958,22 +3232,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1110</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1521</v>
+        <v>196</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1449</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1594</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2981,22 +3255,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1281</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1717</v>
+        <v>180</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1233</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1714</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3004,22 +3278,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="7">
-        <v>810</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1118</v>
+        <v>199</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1039</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1371</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3027,22 +3301,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1060</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1357</v>
+        <v>201</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1120</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1243</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3050,22 +3324,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1195</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1386</v>
+        <v>171</v>
+      </c>
+      <c r="D32" s="8">
+        <v>755</v>
+      </c>
+      <c r="E32" s="8">
+        <v>853</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3073,22 +3347,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1354</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1611</v>
+        <v>171</v>
+      </c>
+      <c r="D33" s="8">
+        <v>699</v>
+      </c>
+      <c r="E33" s="8">
+        <v>895</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3096,22 +3370,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1366</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1516</v>
+        <v>193</v>
+      </c>
+      <c r="D34" s="8">
+        <v>707</v>
+      </c>
+      <c r="E34" s="8">
+        <v>884</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3119,22 +3393,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="7">
-        <v>973</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1265</v>
+        <v>202</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1127</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1578</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3142,22 +3416,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1145</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1466</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1312</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1653</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3165,22 +3439,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1472</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1855</v>
+        <v>185</v>
+      </c>
+      <c r="D37" s="8">
+        <v>733</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1012</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3188,22 +3462,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1231</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1416</v>
+        <v>190</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1433</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2006</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3211,22 +3485,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D39" s="7">
-        <v>633</v>
-      </c>
-      <c r="E39" s="7">
-        <v>753</v>
+        <v>205</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1158</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1482</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3234,22 +3508,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D40" s="7">
-        <v>641</v>
-      </c>
-      <c r="E40" s="7">
-        <v>763</v>
+        <v>206</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1456</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1835</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3257,104 +3531,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1225</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1482</v>
+        <v>207</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1118</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1364</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1474</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1901</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="7">
-        <v>893</v>
-      </c>
-      <c r="E43" s="7">
-        <v>991</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>200</v>
-      </c>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="17" t="s">
-        <v>129</v>
-      </c>
+      <c r="A46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>202</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>203</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>204</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>205</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>206</v>
-      </c>
-      <c r="B51" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
